--- a/Case/clear_app.xlsx
+++ b/Case/clear_app.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>编号</t>
   </si>
@@ -60,16 +60,13 @@
     <t>result</t>
   </si>
   <si>
-    <t>错误数据</t>
-  </si>
-  <si>
     <t>刮刮卡中奖信息</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>/guaGuaActivity/getAwardDesc</t>
+    <t>guaGuaActivity/getAwardDesc</t>
   </si>
   <si>
     <t>get</t>
@@ -93,11 +90,16 @@
 }</t>
   </si>
   <si>
-    <t>测试失败</t>
+    <t>{'requestId': '71de5405-f6c5-4082-82a4-c5d6e9ce66a1', 'timestamp': 1597327068164, 'code': '200', 'message': '请求成功', 'data': ['恭喜一帆风顺获得大奖，提现4元现金', '恭喜孟加拉获得大奖，提现4元现金', '恭喜游客9f11gh获得大奖，提现5元现金', '恭喜奥利获得大奖，提现4元现金', '恭喜天天获得大奖，提现88元现金', '恭喜一路有你获得大奖，提现5元现金', '恭喜那些花儿获得大奖，提现4元现金', '恭喜王伟获得大奖，提现8元现金', '恭喜芳芳获得大奖，提现2元现金', '恭喜游客5f67gh获得大奖，提现5元现金']}</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
   <si>
     <t>add_to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"aaa":"111","bbb":"222"}</t>
   </si>
 </sst>
 </file>
@@ -431,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,11 +454,11 @@
     <col min="12" max="12" width="14" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.875" style="1" customWidth="1"/>
-    <col min="15" max="22" width="9" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="15" max="26" width="9" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,51 +498,55 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Case/clear_app.xlsx
+++ b/Case/clear_app.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>编号</t>
   </si>
@@ -90,16 +90,40 @@
 }</t>
   </si>
   <si>
-    <t>{'requestId': '71de5405-f6c5-4082-82a4-c5d6e9ce66a1', 'timestamp': 1597327068164, 'code': '200', 'message': '请求成功', 'data': ['恭喜一帆风顺获得大奖，提现4元现金', '恭喜孟加拉获得大奖，提现4元现金', '恭喜游客9f11gh获得大奖，提现5元现金', '恭喜奥利获得大奖，提现4元现金', '恭喜天天获得大奖，提现88元现金', '恭喜一路有你获得大奖，提现5元现金', '恭喜那些花儿获得大奖，提现4元现金', '恭喜王伟获得大奖，提现8元现金', '恭喜芳芳获得大奖，提现2元现金', '恭喜游客5f67gh获得大奖，提现5元现金']}</t>
+    <t>{'requestId': '71de5405-f6c5-4082-82a4-c5d6e9ce66a1', 'timestamp': 1597399645894, 'code': '200', 'message': '请求成功', 'data': ['恭喜小鹿人获得大奖，提现20元现金', '恭喜游客1f68gh获得大奖，提现5元现金', '恭喜游客6f78gh获得大奖，提现5元现金', '恭喜豆豆妞获得大奖，提现2元现金', '恭喜星星获得大奖，提现4元现金', '恭喜游客5f67gh获得大奖，提现5元现金', '恭喜诺诺获得大奖，提现88元现金', '恭喜张大伟获得大奖，提现20元现金', '恭喜包租婆获得大奖，提现1元现金', '恭喜那些花儿获得大奖，提现4元现金']}</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
+    <t>刮刮卡区域一</t>
+  </si>
+  <si>
+    <t>guaGuaActivity/areaOneOperation</t>
+  </si>
+  <si>
     <t>add_to</t>
   </si>
   <si>
     <t>{"aaa":"111","bbb":"222"}</t>
+  </si>
+  <si>
+    <t>id=8</t>
+  </si>
+  <si>
+    <t>{"guaGuaActivity/getAwardDesc":[
+{"200": "请求成功"},
+{"1011": "网络异常，请稍后重试"},
+{"3103": "账户不存在"},
+{"200": "请求成功"}
+]
+}</t>
+  </si>
+  <si>
+    <t>{'code': 1011, 'msg': '网络异常，请稍后重试', 'timestamp': 1597399646001}</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -435,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,11 +475,11 @@
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="10" width="17.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="53.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.875" style="1" customWidth="1"/>
-    <col min="15" max="26" width="9" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="15" max="30" width="9" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -538,15 +562,45 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Case/clear_app.xlsx
+++ b/Case/clear_app.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>编号</t>
   </si>
@@ -90,12 +90,6 @@
 }</t>
   </si>
   <si>
-    <t>{'requestId': '71de5405-f6c5-4082-82a4-c5d6e9ce66a1', 'timestamp': 1597399645894, 'code': '200', 'message': '请求成功', 'data': ['恭喜小鹿人获得大奖，提现20元现金', '恭喜游客1f68gh获得大奖，提现5元现金', '恭喜游客6f78gh获得大奖，提现5元现金', '恭喜豆豆妞获得大奖，提现2元现金', '恭喜星星获得大奖，提现4元现金', '恭喜游客5f67gh获得大奖，提现5元现金', '恭喜诺诺获得大奖，提现88元现金', '恭喜张大伟获得大奖，提现20元现金', '恭喜包租婆获得大奖，提现1元现金', '恭喜那些花儿获得大奖，提现4元现金']}</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>刮刮卡区域一</t>
   </si>
   <si>
@@ -108,22 +102,61 @@
     <t>{"aaa":"111","bbb":"222"}</t>
   </si>
   <si>
-    <t>id=8</t>
-  </si>
-  <si>
-    <t>{"guaGuaActivity/getAwardDesc":[
-{"200": "请求成功"},
-{"1011": "网络异常，请稍后重试"},
-{"3103": "账户不存在"},
-{"200": "请求成功"}
-]
-}</t>
-  </si>
-  <si>
-    <t>{'code': 1011, 'msg': '网络异常，请稍后重试', 'timestamp': 1597399646001}</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>{"id":"8"}</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>{"guaGuaActivity/areaOneOperation":[
+    {
+    "sucess":
+        {
+            "requestId": "71de5405-f6c5-4082-82a4-c5d6e9ce66a1",
+ "timestamp": 1597718981959,
+ "code": "200",
+ "message": "请求成功",
+ "data": {
+  "area": 1,
+  "date": "20200818",
+  "gold": 0,
+  "appName": "gj_clean",
+  "hitCode": 8,
+  "userId": "no-login",
+  "hitAwardStatus": false
+ }
+        }
+    }]}</t>
+  </si>
+  <si>
+    <t>刮刮卡区域二</t>
+  </si>
+  <si>
+    <t>guaGuaActivity/areaTwoOperation</t>
+  </si>
+  <si>
+    <t>{"aaa":"111","bbb":"223"}</t>
+  </si>
+  <si>
+    <t>{"id":"9"}</t>
+  </si>
+  <si>
+    <t>{"guaGuaActivity/areaTwoOperation":[
+    {
+    "sucess":
+        {
+            "requestId":"null",
+    "timestamp": 1597722150033,
+    "code": "200",
+    "message": "请求成功",
+    "data": {
+        "userId": null,
+        "appName": null,
+        "area": null,
+        "gold": null,
+        "date": null,
+        "doubledMagnification": null
+    }}}]}</t>
   </si>
 </sst>
 </file>
@@ -457,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,11 +508,11 @@
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="10" width="17.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="53.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.875" style="1" customWidth="1"/>
-    <col min="15" max="30" width="9" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="15" max="42" width="9" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -555,57 +588,83 @@
       <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
+      <c r="L2" s="2"/>
+      <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Case/clear_app.xlsx
+++ b/Case/clear_app.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>编号</t>
   </si>
@@ -88,6 +88,12 @@
 {"200": "请求成功"}
 ]
 }</t>
+  </si>
+  <si>
+    <t>{'requestId': '71de5405-f6c5-4082-82a4-c5d6e9ce66a1', 'timestamp': 1597734568382, 'code': '200', 'message': '请求成功', 'data': ['恭喜丹丹获得大奖，提现2元现金', '恭喜二月鸟获得大奖，提现10元现金', '恭喜幸福获得大奖，提现1元现金', '恭喜丫丫获得大奖，提现2元现金', '恭喜奥利获得大奖，提现4元现金', '恭喜大鹏获得大奖，提现2元现金', '恭喜其开得胜获得大奖，提现1元现金', '恭喜游客5f67ih获得大奖，提现5元现金', '恭喜糖宝获得大奖，提现2元现金', '恭喜娜娜获得大奖，提现1元现金']}</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
   <si>
     <t>刮刮卡区域一</t>
@@ -129,13 +135,13 @@
     }]}</t>
   </si>
   <si>
+    <t>{'requestId': '71de5405-f6c5-4082-82a4-c5d6e9ce66a1', 'timestamp': 1597734568527, 'code': '200', 'message': '请求成功', 'data': {'area': 1, 'date': '20200818', 'gold': 0, 'appName': 'gj_clean', 'hitCode': 8, 'userId': 'no-login', 'hitAwardStatus': False}}</t>
+  </si>
+  <si>
     <t>刮刮卡区域二</t>
   </si>
   <si>
     <t>guaGuaActivity/areaTwoOperation</t>
-  </si>
-  <si>
-    <t>{"aaa":"111","bbb":"223"}</t>
   </si>
   <si>
     <t>{"id":"9"}</t>
@@ -157,6 +163,82 @@
         "date": null,
         "doubledMagnification": null
     }}}]}</t>
+  </si>
+  <si>
+    <t>{'requestId': '71de5405-f6c5-4082-82a4-c5d6e9ce66a1', 'timestamp': 1597734568663, 'code': '200', 'message': '请求成功', 'data': {'userId': 'no-login', 'appName': 'gj_clean', 'area': 2, 'gold': 26, 'date': '20200818', 'doubledMagnification': None}}</t>
+  </si>
+  <si>
+    <t>翻倍奖励</t>
+  </si>
+  <si>
+    <t>guaGuaActivity/doubleAward</t>
+  </si>
+  <si>
+    <t>{"id":"22"}</t>
+  </si>
+  <si>
+    <t>{"guaGuaActivity/doubleAward":[
+    {
+    "sucess":
+        {
+    "requestId": null,
+    "timestamp": 1597732964266,
+    "code": "200",
+    "message": "请求成功",
+    "data": null
+    }}]}</t>
+  </si>
+  <si>
+    <t>{'requestId': '71de5405-f6c5-4082-82a4-c5d6e9ce66a1', 'timestamp': 1597734568802, 'code': '200', 'message': '请求成功', 'data': None}</t>
+  </si>
+  <si>
+    <t>今日客户获奖金币与刮奖次数</t>
+  </si>
+  <si>
+    <t>guaGuaActivity/getAwardMsg</t>
+  </si>
+  <si>
+    <t>{"customer-id":"4394822884741083136"}</t>
+  </si>
+  <si>
+    <t>{"guaGuaActivity/getAwardMsg":[
+    {
+    "sucess":
+        {
+ "requestId": null,
+ "timestamp": 1597733131936,
+ "code": "200",
+ "message": "请求成功",
+ "data": {
+  "awardNum": 1,
+  "awardGold": 41
+ }
+    }}]}</t>
+  </si>
+  <si>
+    <t>{'requestId': '71de5405-f6c5-4082-82a4-c5d6e9ce66a1', 'timestamp': 1597734568951, 'code': '200', 'message': '请求成功', 'data': {'awardNum': 0, 'awardGold': 0}}</t>
+  </si>
+  <si>
+    <t>获取当前时间的场次配</t>
+  </si>
+  <si>
+    <t>guaGuaActivity/getRondaData</t>
+  </si>
+  <si>
+    <t>{"guaGuaActivity/getRondaData":[
+{"200": "请求成功"},
+{"1001": "网络异常，请稍后重试"},
+{"3103": "账户不存在"},
+{"200": "请求成功"}
+]
+}</t>
+  </si>
+  <si>
+    <t>{'requestId': '71de5405-f6c5-4082-82a4-c5d6e9ce66a1', 'timestamp': 1597734569157, 'code': '200', 'message': '请求成功', 'data': {'hours': [0, 9, 11, 16, 20], 'nextTime': 16, 'WzActivityCardConfigList': [{'id': 41, 'rondaId': '3', 'actRdNum': '11:00', 'cardType': '100元', 'picUrl': 'https://wkqlimage.wukongclean.com/clean/banner/image/138e320cd5fd4e9a9446d83c69e8ea17.png', 'awardType': 1, 'hitCode': 1, 'probability': '0.0000004', 'num': 100, 'awardLimit': 1, 'goldSection': '10-20', 'status': 1, 'prioritizeIncentiveAds': 0, 'openPopupWindow': 0, 'popupWindowProbability': 0, 'createTime': 1594814662000, 'createMan': '', 'modifyTime': 1594814662000, 'modifyMan': '', 'remark': '', 'cardPosition': 1, 'doubledMagnification': 2}, {'id': 42, 'rondaId': '3', 'actRdNum': '11:00', 'cardType': '1288金币', 'picUrl': 'https://wkqlimage.wukongclean.com/clean/banner/image/0f37addcc95945c195ba3db5de5c832f.png', 'awardType': 2, 'hitCode': 2, 'probability': ' 0.00005', 'num': 1288, 'awardLimit': 15, 'goldSection': '10-20', 'status': 1, 'prioritizeIncentiveAds': 0, 'openPopupWindow': 0, 'popupWindowProbability': 0, 'createTime': 1594814687000, 'createMan': '', 'modifyTime': 1594814687000, 'modifyMan': '', 'remark': '', 'cardPosition': 2, 'doubledMagnification': 2}, {'id': 43, 'rondaId': '3', 'actRdNum': '11:00', 'cardType': '2元', 'picUrl': 'https://wkqlimage.wukongclean.com/clean/banner/image/a0d74fd607bd43e3ab0e599470104de8.png', 'awardType': 1, 'hitCode': 3, 'probability': '0.00002', 'num': 2, 'awardLimit': 2, 'goldSection': '10-20', 'status': 1, 'prioritizeIncentiveAds': 0, 'openPopupWindow': 0, 'popupWindowProbability': 0, 'createTime': 1594814705000, 'createMan': '', 'modifyTime': 1594814705000, 'modifyMan': '', 'remark': '', 'cardPosition': 3, 'doubledMagnification': 2}, {'id': 44, 'rondaId': '3', 'actRdNum': '11:00', 'cardType': '88元', 'picUrl': 'https://wkqlimage.wukongclean.com/clean/banner/image/e0b72a633bdc4d4d9eda9a596cd7252c.png', 'awardType': 1, 'hitCode': 4, 'probability': '0.00000045', 'num': 88, 'awardLimit': 1, 'goldSection': '10-20', 'status': 1, 'prioritizeIncentiveAds': 0, 'openPopupWindow': 0, 'popupWindowProbability': 0, 'createTime': 1594814723000, 'createMan': '', 'modifyTime': 1594814723000, 'modifyMan': '', 'remark': '', 'cardPosition': 4, 'doubledMagnification': 2}, {'id': 45, 'rondaId': '3', 'actRdNum': '11:00', 'cardType': '2888金币', 'picUrl': 'https://wkqlimage.wukongclean.com/clean/banner/image/5a68ab640f6f48089bcff799645a965a.png', 'awardType': 2, 'hitCode': 5, 'probability': '0.00005', 'num': 2888, 'awardLimit': 10, 'goldSection': '10-20', 'status': 1, 'prioritizeIncentiveAds': 0, 'openPopupWindow': 0, 'popupWindowProbability': 0, 'createTime': 1594814744000, 'createMan': '', 'modifyTime': 1594814744000, 'modifyMan': '', 'remark': '', 'cardPosition': 5, 'doubledMagnification': 2}, {'id': 46, 'rondaId': '3', 'actRdNum': '11:00', 'cardType': '4元', 'picUrl': 'https://wkqlimage.wukongclean.com/clean/banner/image/5d70915e05f04df5950c137587f35362.png', 'awardType': 1, 'hitCode': 6, 'probability': '0.00001', 'num': 4, 'awardLimit': 1, 'goldSection': '10-20', 'status': 1, 'prioritizeIncentiveAds': 0, 'openPopupWindow': 0, 'popupWindowProbability': 0, 'createTime': 1594814881000, 'createMan': '', 'modifyTime': 1594814881000, 'modifyMan': '', 'remark': '', 'cardPosition': 6, 'doubledMagnification': 2}, {'id': 47, 'rondaId': '3', 'actRdNum': '11:00', 'cardType': '288金币', 'picUrl': 'https://wkqlimage.wukongclean.com/clean/banner/image/8a44d6f11fcb43389cfd0947cb83f728.png', 'awardType': 2, 'hitCode': 7, 'probability': '0.0001', 'num': 288, 'awardLimit': 30, 'goldSection': '10-20', 'status': 1, 'prioritizeIncentiveAds': 0, 'openPopupWindow': 0, 'popupWindowProbability': 0, 'createTime': 1594814904000, 'createMan': '', 'modifyTime': 1594814904000, 'modifyMan': '', 'remark': '', 'cardPosition': 7, 'doubledMagnification': 2}, {'id': 48, 'rondaId': '3', 'actRdNum': '11:00', 'cardType': '688金币', 'picUrl': 'https://wkqlimage.wukongclean.com/clean/banner/image/e97021b13b284eb5898f6b413e8055b9.png', 'awardType': 2, 'hitCode': 8, 'probability': '0.00008', 'num': 688, 'awardLimit': 20, 'goldSection': '10-20', 'status': 1, 'prioritizeIncentiveAds': 0, 'openPopupWindow': 0, 'popupWindowProbability': 0, 'createTime': 1594814924000, 'createMan': '', 'modifyTime': 1594814924000, 'modifyMan': '', 'remark': '', 'cardPosition': 8, 'doubledMagnification': 2}, {'id': 49, 'rondaId': '3', 'actRdNum': '11:00', 'cardType': ' 4888金币', 'picUrl': 'https://wkqlimage.wukongclean.com/clean/banner/image/675cbc369e7f4920a7b6b4973dfcab9f.png', 'awardType': 2, 'hitCode': 1, 'probability': '0.00003', 'num': 4888, 'awardLimit': 6, 'goldSection': '10-20', 'status': 1, 'prioritizeIncentiveAds': 0, 'openPopupWindow': 0, 'popupWindowProbability': 0, 'createTime': 1594814997000, 'createMan': '', 'modifyTime': 1594814997000, 'modifyMan': '', 'remark': '', 'cardPosition': 9, 'doubledMagnification': 2}, {'id': 50, 'rondaId': '3', 'actRdNum': '11:00', 'cardType': '1元', 'picUrl': 'https://wkqlimage.wukongclean.com/clean/banner/image/489c43e3f70040f8bbfea0e968995cea.png', 'awardType': 1, 'hitCode': 2, 'probability': '0.00003', 'num': 1, 'awardLimit': 4, 'goldSection': '10-20', 'status': 1, 'prioritizeIncentiveAds': 0, 'openPopupWindow': 0, 'popupWindowProbability': 0, 'createTime': 1594815071000, 'createMan': '', 'modifyTime': 1594815071000, 'modifyMan': '', 'remark': '', 'cardPosition': 10, 'doubledMagnification': 2}], 'nextTimestamp': 3030, 'wkActivityRondaConfig': {'id': 3, 'actRdNum': '11:00', 'cardNum': 10, 'appName': 'gj_clean', 'status': 1, 'createTime': 1594807633000, 'createMan': '管理员', 'modifyTime': 1594815072000, 'modifyMan': '', 'remark': ''}}}</t>
+  </si>
+  <si>
+    <t>{"aaa":"111","bbb":"223"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -490,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -504,15 +586,15 @@
     <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="1" customWidth="1"/>
     <col min="9" max="10" width="17.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="53.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="35.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.875" style="1" customWidth="1"/>
-    <col min="15" max="42" width="9" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="1"/>
+    <col min="15" max="46" width="9" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -556,7 +638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -588,83 +670,203 @@
       <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2"/>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3"/>
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4"/>
-      <c r="M4"/>
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>